--- a/natmiOut/OldD4/LR-pairs_lrc2p/Tfpi-Lrp1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Tfpi-Lrp1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.08912488330708</v>
+        <v>5.573004</v>
       </c>
       <c r="H2">
-        <v>4.08912488330708</v>
+        <v>16.719012</v>
       </c>
       <c r="I2">
-        <v>0.1127945870717545</v>
+        <v>0.1383950099922425</v>
       </c>
       <c r="J2">
-        <v>0.1127945870717545</v>
+        <v>0.1494586813194652</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N2">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O2">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P2">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q2">
-        <v>13.73578863248166</v>
+        <v>21.994833704032</v>
       </c>
       <c r="R2">
-        <v>13.73578863248166</v>
+        <v>197.953503336288</v>
       </c>
       <c r="S2">
-        <v>0.0008050761033629733</v>
+        <v>0.001118548307799287</v>
       </c>
       <c r="T2">
-        <v>0.0008050761033629733</v>
+        <v>0.001243150011665507</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.08912488330708</v>
+        <v>5.573004</v>
       </c>
       <c r="H3">
-        <v>4.08912488330708</v>
+        <v>16.719012</v>
       </c>
       <c r="I3">
-        <v>0.1127945870717545</v>
+        <v>0.1383950099922425</v>
       </c>
       <c r="J3">
-        <v>0.1127945870717545</v>
+        <v>0.1494586813194652</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N3">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O3">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P3">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q3">
-        <v>715.726797295552</v>
+        <v>1035.479437380644</v>
       </c>
       <c r="R3">
-        <v>715.726797295552</v>
+        <v>9319.314936425795</v>
       </c>
       <c r="S3">
-        <v>0.04194986953108483</v>
+        <v>0.05265935573910498</v>
       </c>
       <c r="T3">
-        <v>0.04194986953108483</v>
+        <v>0.0585253924617382</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.08912488330708</v>
+        <v>5.573004</v>
       </c>
       <c r="H4">
-        <v>4.08912488330708</v>
+        <v>16.719012</v>
       </c>
       <c r="I4">
-        <v>0.1127945870717545</v>
+        <v>0.1383950099922425</v>
       </c>
       <c r="J4">
-        <v>0.1127945870717545</v>
+        <v>0.1494586813194652</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N4">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O4">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P4">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q4">
-        <v>472.5814320108292</v>
+        <v>653.9330811673641</v>
       </c>
       <c r="R4">
-        <v>472.5814320108292</v>
+        <v>5885.397730506276</v>
       </c>
       <c r="S4">
-        <v>0.02769873852785353</v>
+        <v>0.03325579775670873</v>
       </c>
       <c r="T4">
-        <v>0.02769873852785353</v>
+        <v>0.03696035752853385</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.08912488330708</v>
+        <v>5.573004</v>
       </c>
       <c r="H5">
-        <v>4.08912488330708</v>
+        <v>16.719012</v>
       </c>
       <c r="I5">
-        <v>0.1127945870717545</v>
+        <v>0.1383950099922425</v>
       </c>
       <c r="J5">
-        <v>0.1127945870717545</v>
+        <v>0.1494586813194652</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N5">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O5">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P5">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q5">
-        <v>554.7033034586868</v>
+        <v>778.906180010276</v>
       </c>
       <c r="R5">
-        <v>554.7033034586868</v>
+        <v>7010.155620092484</v>
       </c>
       <c r="S5">
-        <v>0.03251203014401691</v>
+        <v>0.03961131060632608</v>
       </c>
       <c r="T5">
-        <v>0.03251203014401691</v>
+        <v>0.04402384849986866</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.08912488330708</v>
+        <v>5.573004</v>
       </c>
       <c r="H6">
-        <v>4.08912488330708</v>
+        <v>16.719012</v>
       </c>
       <c r="I6">
-        <v>0.1127945870717545</v>
+        <v>0.1383950099922425</v>
       </c>
       <c r="J6">
-        <v>0.1127945870717545</v>
+        <v>0.1494586813194652</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N6">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O6">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P6">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q6">
-        <v>167.695101416665</v>
+        <v>231.048798736296</v>
       </c>
       <c r="R6">
-        <v>167.695101416665</v>
+        <v>1386.292792417776</v>
       </c>
       <c r="S6">
-        <v>0.009828872765436212</v>
+        <v>0.01174999758230343</v>
       </c>
       <c r="T6">
-        <v>0.009828872765436212</v>
+        <v>0.00870593281765903</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.7912552633253</v>
+        <v>19.39389166666666</v>
       </c>
       <c r="H7">
-        <v>17.7912552633253</v>
+        <v>58.181675</v>
       </c>
       <c r="I7">
-        <v>0.4907547086925823</v>
+        <v>0.4816106055184604</v>
       </c>
       <c r="J7">
-        <v>0.4907547086925823</v>
+        <v>0.520111859627692</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N7">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O7">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P7">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q7">
-        <v>59.76264574387938</v>
+        <v>76.5413809289111</v>
       </c>
       <c r="R7">
-        <v>59.76264574387938</v>
+        <v>688.8724283601999</v>
       </c>
       <c r="S7">
-        <v>0.003502782348322398</v>
+        <v>0.003892515545546477</v>
       </c>
       <c r="T7">
-        <v>0.003502782348322398</v>
+        <v>0.004326125847326907</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.7912552633253</v>
+        <v>19.39389166666666</v>
       </c>
       <c r="H8">
-        <v>17.7912552633253</v>
+        <v>58.181675</v>
       </c>
       <c r="I8">
-        <v>0.4907547086925823</v>
+        <v>0.4816106055184604</v>
       </c>
       <c r="J8">
-        <v>0.4907547086925823</v>
+        <v>0.520111859627692</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N8">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O8">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P8">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q8">
-        <v>3114.035035092665</v>
+        <v>3603.43829497003</v>
       </c>
       <c r="R8">
-        <v>3114.035035092665</v>
+        <v>32430.94465473027</v>
       </c>
       <c r="S8">
-        <v>0.1825184748300276</v>
+        <v>0.1832530248391467</v>
       </c>
       <c r="T8">
-        <v>0.1825184748300276</v>
+        <v>0.2036666618491752</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.7912552633253</v>
+        <v>19.39389166666666</v>
       </c>
       <c r="H9">
-        <v>17.7912552633253</v>
+        <v>58.181675</v>
       </c>
       <c r="I9">
-        <v>0.4907547086925823</v>
+        <v>0.4816106055184604</v>
       </c>
       <c r="J9">
-        <v>0.4907547086925823</v>
+        <v>0.520111859627692</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N9">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O9">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P9">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q9">
-        <v>2056.140893112722</v>
+        <v>2275.668083749697</v>
       </c>
       <c r="R9">
-        <v>2056.140893112722</v>
+        <v>20481.01275374728</v>
       </c>
       <c r="S9">
-        <v>0.1205136408606326</v>
+        <v>0.1157292079787105</v>
       </c>
       <c r="T9">
-        <v>0.1205136408606326</v>
+        <v>0.1286209681295139</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.7912552633253</v>
+        <v>19.39389166666666</v>
       </c>
       <c r="H10">
-        <v>17.7912552633253</v>
+        <v>58.181675</v>
       </c>
       <c r="I10">
-        <v>0.4907547086925823</v>
+        <v>0.4816106055184604</v>
       </c>
       <c r="J10">
-        <v>0.4907547086925823</v>
+        <v>0.520111859627692</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N10">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O10">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P10">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q10">
-        <v>2413.442569956887</v>
+        <v>2710.570829236164</v>
       </c>
       <c r="R10">
-        <v>2413.442569956887</v>
+        <v>24395.13746312548</v>
       </c>
       <c r="S10">
-        <v>0.1414556522307352</v>
+        <v>0.1378462076599572</v>
       </c>
       <c r="T10">
-        <v>0.1414556522307352</v>
+        <v>0.1532017110621487</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.7912552633253</v>
+        <v>19.39389166666666</v>
       </c>
       <c r="H11">
-        <v>17.7912552633253</v>
+        <v>58.181675</v>
       </c>
       <c r="I11">
-        <v>0.4907547086925823</v>
+        <v>0.4816106055184604</v>
       </c>
       <c r="J11">
-        <v>0.4907547086925823</v>
+        <v>0.520111859627692</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N11">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O11">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P11">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q11">
-        <v>729.6197697195788</v>
+        <v>804.0430928104832</v>
       </c>
       <c r="R11">
-        <v>729.6197697195788</v>
+        <v>4824.2585568629</v>
       </c>
       <c r="S11">
-        <v>0.04276415842286461</v>
+        <v>0.04088964949509958</v>
       </c>
       <c r="T11">
-        <v>0.04276415842286461</v>
+        <v>0.03029639273952743</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.15313395572125</v>
+        <v>3.432072333333333</v>
       </c>
       <c r="H12">
-        <v>3.15313395572125</v>
+        <v>10.296217</v>
       </c>
       <c r="I12">
-        <v>0.08697617526170268</v>
+        <v>0.08522902277941405</v>
       </c>
       <c r="J12">
-        <v>0.08697617526170268</v>
+        <v>0.09204246132481156</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N12">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O12">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P12">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q12">
-        <v>10.59169939330889</v>
+        <v>13.54527293213422</v>
       </c>
       <c r="R12">
-        <v>10.59169939330889</v>
+        <v>121.907456389208</v>
       </c>
       <c r="S12">
-        <v>0.000620796104520173</v>
+        <v>0.0006888454953010532</v>
       </c>
       <c r="T12">
-        <v>0.000620796104520173</v>
+        <v>0.0007655800643997736</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.15313395572125</v>
+        <v>3.432072333333333</v>
       </c>
       <c r="H13">
-        <v>3.15313395572125</v>
+        <v>10.296217</v>
       </c>
       <c r="I13">
-        <v>0.08697617526170268</v>
+        <v>0.08522902277941405</v>
       </c>
       <c r="J13">
-        <v>0.08697617526170268</v>
+        <v>0.09204246132481156</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N13">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O13">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P13">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q13">
-        <v>551.8986413902459</v>
+        <v>637.68845828384</v>
       </c>
       <c r="R13">
-        <v>551.8986413902459</v>
+        <v>5739.19612455456</v>
       </c>
       <c r="S13">
-        <v>0.03234764450372169</v>
+        <v>0.03242967669202104</v>
       </c>
       <c r="T13">
-        <v>0.03234764450372169</v>
+        <v>0.03604220995811359</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.15313395572125</v>
+        <v>3.432072333333333</v>
       </c>
       <c r="H14">
-        <v>3.15313395572125</v>
+        <v>10.296217</v>
       </c>
       <c r="I14">
-        <v>0.08697617526170268</v>
+        <v>0.08522902277941405</v>
       </c>
       <c r="J14">
-        <v>0.08697617526170268</v>
+        <v>0.09204246132481156</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N14">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O14">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P14">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q14">
-        <v>364.4086699821186</v>
+        <v>402.7173918636934</v>
       </c>
       <c r="R14">
-        <v>364.4086699821186</v>
+        <v>3624.456526773241</v>
       </c>
       <c r="S14">
-        <v>0.02135856337852536</v>
+        <v>0.02048021200123466</v>
       </c>
       <c r="T14">
-        <v>0.02135856337852536</v>
+        <v>0.02276162380356975</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.15313395572125</v>
+        <v>3.432072333333333</v>
       </c>
       <c r="H15">
-        <v>3.15313395572125</v>
+        <v>10.296217</v>
       </c>
       <c r="I15">
-        <v>0.08697617526170268</v>
+        <v>0.08522902277941405</v>
       </c>
       <c r="J15">
-        <v>0.08697617526170268</v>
+        <v>0.09204246132481156</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N15">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O15">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P15">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q15">
-        <v>427.7330410294994</v>
+        <v>479.6806804150187</v>
       </c>
       <c r="R15">
-        <v>427.7330410294994</v>
+        <v>4317.126123735168</v>
       </c>
       <c r="S15">
-        <v>0.02507010403008864</v>
+        <v>0.0243941836788642</v>
       </c>
       <c r="T15">
-        <v>0.02507010403008864</v>
+        <v>0.02711159590828526</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.15313395572125</v>
+        <v>3.432072333333333</v>
       </c>
       <c r="H16">
-        <v>3.15313395572125</v>
+        <v>10.296217</v>
       </c>
       <c r="I16">
-        <v>0.08697617526170268</v>
+        <v>0.08522902277941405</v>
       </c>
       <c r="J16">
-        <v>0.08697617526170268</v>
+        <v>0.09204246132481156</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N16">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O16">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P16">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q16">
-        <v>129.3100928865167</v>
+        <v>142.2888248048526</v>
       </c>
       <c r="R16">
-        <v>129.3100928865167</v>
+        <v>853.7329488291159</v>
       </c>
       <c r="S16">
-        <v>0.007579067244846816</v>
+        <v>0.007236104911993091</v>
       </c>
       <c r="T16">
-        <v>0.007579067244846816</v>
+        <v>0.005361451590443191</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.53297225774572</v>
+        <v>2.927161333333333</v>
       </c>
       <c r="H17">
-        <v>2.53297225774572</v>
+        <v>8.781483999999999</v>
       </c>
       <c r="I17">
-        <v>0.06986960976490737</v>
+        <v>0.0726905134063375</v>
       </c>
       <c r="J17">
-        <v>0.06986960976490737</v>
+        <v>0.07850158960756669</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N17">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O17">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P17">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q17">
-        <v>8.508512832749858</v>
+        <v>11.55255347951289</v>
       </c>
       <c r="R17">
-        <v>8.508512832749858</v>
+        <v>103.972981315616</v>
       </c>
       <c r="S17">
-        <v>0.0004986972746949234</v>
+        <v>0.0005875056533344503</v>
       </c>
       <c r="T17">
-        <v>0.0004986972746949234</v>
+        <v>0.000652951378768103</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.53297225774572</v>
+        <v>2.927161333333333</v>
       </c>
       <c r="H18">
-        <v>2.53297225774572</v>
+        <v>8.781483999999999</v>
       </c>
       <c r="I18">
-        <v>0.06986960976490737</v>
+        <v>0.0726905134063375</v>
       </c>
       <c r="J18">
-        <v>0.06986960976490737</v>
+        <v>0.07850158960756669</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N18">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O18">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P18">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q18">
-        <v>443.3506369726306</v>
+        <v>543.8746088397523</v>
       </c>
       <c r="R18">
-        <v>443.3506369726306</v>
+        <v>4894.871479557772</v>
       </c>
       <c r="S18">
-        <v>0.02598547580976649</v>
+        <v>0.02765876894359897</v>
       </c>
       <c r="T18">
-        <v>0.02598547580976649</v>
+        <v>0.0307398426113023</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.53297225774572</v>
+        <v>2.927161333333333</v>
       </c>
       <c r="H19">
-        <v>2.53297225774572</v>
+        <v>8.781483999999999</v>
       </c>
       <c r="I19">
-        <v>0.06986960976490737</v>
+        <v>0.0726905134063375</v>
       </c>
       <c r="J19">
-        <v>0.06986960976490737</v>
+        <v>0.07850158960756669</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N19">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O19">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P19">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q19">
-        <v>292.7363900515244</v>
+        <v>343.4714257841258</v>
       </c>
       <c r="R19">
-        <v>292.7363900515244</v>
+        <v>3091.242832057132</v>
       </c>
       <c r="S19">
-        <v>0.01715773870150513</v>
+        <v>0.0174672555954726</v>
       </c>
       <c r="T19">
-        <v>0.01715773870150513</v>
+        <v>0.01941303638463203</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.53297225774572</v>
+        <v>2.927161333333333</v>
       </c>
       <c r="H20">
-        <v>2.53297225774572</v>
+        <v>8.781483999999999</v>
       </c>
       <c r="I20">
-        <v>0.06986960976490737</v>
+        <v>0.0726905134063375</v>
       </c>
       <c r="J20">
-        <v>0.06986960976490737</v>
+        <v>0.07850158960756669</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N20">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O20">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P20">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q20">
-        <v>343.6060572951801</v>
+        <v>409.112222496243</v>
       </c>
       <c r="R20">
-        <v>343.6060572951801</v>
+        <v>3682.010002466188</v>
       </c>
       <c r="S20">
-        <v>0.02013928963969063</v>
+        <v>0.02080542141536131</v>
       </c>
       <c r="T20">
-        <v>0.02013928963969063</v>
+        <v>0.02312306021552114</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.53297225774572</v>
+        <v>2.927161333333333</v>
       </c>
       <c r="H21">
-        <v>2.53297225774572</v>
+        <v>8.781483999999999</v>
       </c>
       <c r="I21">
-        <v>0.06986960976490737</v>
+        <v>0.0726905134063375</v>
       </c>
       <c r="J21">
-        <v>0.06986960976490737</v>
+        <v>0.07850158960756669</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N21">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O21">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P21">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q21">
-        <v>103.8772480102728</v>
+        <v>121.3559347479386</v>
       </c>
       <c r="R21">
-        <v>103.8772480102728</v>
+        <v>728.1356084876319</v>
       </c>
       <c r="S21">
-        <v>0.006088408339250213</v>
+        <v>0.006171561798570169</v>
       </c>
       <c r="T21">
-        <v>0.006088408339250213</v>
+        <v>0.004572699017343111</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>8.686360425055129</v>
+        <v>8.9426925</v>
       </c>
       <c r="H22">
-        <v>8.686360425055129</v>
+        <v>17.885385</v>
       </c>
       <c r="I22">
-        <v>0.2396049192090534</v>
+        <v>0.2220748483035455</v>
       </c>
       <c r="J22">
-        <v>0.2396049192090534</v>
+        <v>0.1598854081204645</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N22">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O22">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P22">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q22">
-        <v>29.17837292550859</v>
+        <v>35.29389794154</v>
       </c>
       <c r="R22">
-        <v>29.17837292550859</v>
+        <v>211.76338764924</v>
       </c>
       <c r="S22">
-        <v>0.001710190175887705</v>
+        <v>0.001794872848295888</v>
       </c>
       <c r="T22">
-        <v>0.001710190175887705</v>
+        <v>0.001329876225424809</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>8.686360425055129</v>
+        <v>8.9426925</v>
       </c>
       <c r="H23">
-        <v>8.686360425055129</v>
+        <v>17.885385</v>
       </c>
       <c r="I23">
-        <v>0.2396049192090534</v>
+        <v>0.2220748483035455</v>
       </c>
       <c r="J23">
-        <v>0.2396049192090534</v>
+        <v>0.1598854081204645</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N23">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O23">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P23">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q23">
-        <v>1520.389106373168</v>
+        <v>1661.576808229117</v>
       </c>
       <c r="R23">
-        <v>1520.389106373168</v>
+        <v>9969.460849374706</v>
       </c>
       <c r="S23">
-        <v>0.08911238881908137</v>
+        <v>0.08449956713164498</v>
       </c>
       <c r="T23">
-        <v>0.08911238881908137</v>
+        <v>0.06260831539891745</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>8.686360425055129</v>
+        <v>8.9426925</v>
       </c>
       <c r="H24">
-        <v>8.686360425055129</v>
+        <v>17.885385</v>
       </c>
       <c r="I24">
-        <v>0.2396049192090534</v>
+        <v>0.2220748483035455</v>
       </c>
       <c r="J24">
-        <v>0.2396049192090534</v>
+        <v>0.1598854081204645</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N24">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O24">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P24">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q24">
-        <v>1003.885370533076</v>
+        <v>1049.330389940018</v>
       </c>
       <c r="R24">
-        <v>1003.885370533076</v>
+        <v>6295.982339640105</v>
       </c>
       <c r="S24">
-        <v>0.05883929521313873</v>
+        <v>0.05336374658629995</v>
       </c>
       <c r="T24">
-        <v>0.05883929521313873</v>
+        <v>0.03953883304440935</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>8.686360425055129</v>
+        <v>8.9426925</v>
       </c>
       <c r="H25">
-        <v>8.686360425055129</v>
+        <v>17.885385</v>
       </c>
       <c r="I25">
-        <v>0.2396049192090534</v>
+        <v>0.2220748483035455</v>
       </c>
       <c r="J25">
-        <v>0.2396049192090534</v>
+        <v>0.1598854081204645</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N25">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O25">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P25">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q25">
-        <v>1178.333496851786</v>
+        <v>1249.867836840157</v>
       </c>
       <c r="R25">
-        <v>1178.333496851786</v>
+        <v>7499.207021040945</v>
       </c>
       <c r="S25">
-        <v>0.06906397335382623</v>
+        <v>0.06356208792858621</v>
       </c>
       <c r="T25">
-        <v>0.06906397335382623</v>
+        <v>0.04709509626536685</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>8.686360425055129</v>
+        <v>8.9426925</v>
       </c>
       <c r="H26">
-        <v>8.686360425055129</v>
+        <v>17.885385</v>
       </c>
       <c r="I26">
-        <v>0.2396049192090534</v>
+        <v>0.2220748483035455</v>
       </c>
       <c r="J26">
-        <v>0.2396049192090534</v>
+        <v>0.1598854081204645</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N26">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O26">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P26">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q26">
-        <v>356.2278321133717</v>
+        <v>370.751278770495</v>
       </c>
       <c r="R26">
-        <v>356.2278321133717</v>
+        <v>1483.00511508198</v>
       </c>
       <c r="S26">
-        <v>0.0208790716471194</v>
+        <v>0.01885457380871842</v>
       </c>
       <c r="T26">
-        <v>0.0208790716471194</v>
+        <v>0.009313287186346093</v>
       </c>
     </row>
   </sheetData>
